--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SportBookNTC_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEST_sportNTC_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D0523A-5662-4719-9FF6-BC5212930B35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA565F-36A5-4D3F-A8FE-051AAD14D6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{1EC76EAE-B802-4943-8271-2FBB13A4720A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="1" xr2:uid="{1EC76EAE-B802-4943-8271-2FBB13A4720A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="schedule" sheetId="1" r:id="rId1"/>
+    <sheet name="responsiblePersons" sheetId="3" r:id="rId2"/>
+    <sheet name="noticeList" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>Теннис (большой)</t>
   </si>
@@ -139,6 +141,60 @@
   </si>
   <si>
     <t>@username | @Gleb_Kaz</t>
+  </si>
+  <si>
+    <t>Теннис (настольный)</t>
+  </si>
+  <si>
+    <t>@RomanenkoIE</t>
+  </si>
+  <si>
+    <t>@firdy22</t>
+  </si>
+  <si>
+    <t>@DsKvart|@stayhumble</t>
+  </si>
+  <si>
+    <t>@AndreyP_Yoga|@slava_gorobets</t>
+  </si>
+  <si>
+    <t>@PetrBybin|@Alexey_Shchuklin</t>
+  </si>
+  <si>
+    <t>@telegramuser|@Gleb_Kaz</t>
+  </si>
+  <si>
+    <t>@Korchma_A|@telegramuser</t>
+  </si>
+  <si>
+    <t>@telegramuser|@telegramuser</t>
+  </si>
+  <si>
+    <t>@telegramuser</t>
+  </si>
+  <si>
+    <t>Быбин Петр|Щуклин Алексей</t>
+  </si>
+  <si>
+    <t>Кочетков Павел|Сазонов Николай</t>
+  </si>
+  <si>
+    <t>Подшивалов Андрей|Горобец Вячеслав</t>
+  </si>
+  <si>
+    <t>Сазонова Анна|Чернявских Мария</t>
+  </si>
+  <si>
+    <t>Квартников Дмитрий|Туляков Ильгиз</t>
+  </si>
+  <si>
+    <t>Гуляев Денис|Казанцев Глеб</t>
+  </si>
+  <si>
+    <t>Казанцев Глеб|Быбин Петр</t>
+  </si>
+  <si>
+    <t>@Gleb_Kaz|PetrBybin</t>
   </si>
 </sst>
 </file>
@@ -199,10 +255,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -519,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FD74F6-45F3-44DA-A2DB-593AE24CDCD8}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,12 +605,12 @@
       <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
@@ -569,12 +625,12 @@
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3">
         <v>0.77083333333333337</v>
       </c>
@@ -587,12 +643,12 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="3">
         <v>0.83333333333333337</v>
       </c>
@@ -605,12 +661,12 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="3">
@@ -625,12 +681,12 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="3">
         <v>0.76041666666666663</v>
       </c>
@@ -643,12 +699,12 @@
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="3">
         <v>0.80208333333333337</v>
       </c>
@@ -661,12 +717,12 @@
       <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="3">
         <v>0.86458333333333337</v>
       </c>
@@ -679,12 +735,12 @@
       <c r="E8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3">
@@ -699,12 +755,12 @@
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="3">
         <v>0.77083333333333337</v>
       </c>
@@ -717,12 +773,12 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="3">
         <v>0.83333333333333337</v>
       </c>
@@ -735,12 +791,12 @@
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3">
@@ -755,12 +811,12 @@
       <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="3">
         <v>0.76041666666666663</v>
       </c>
@@ -773,12 +829,12 @@
       <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="3">
         <v>0.80208333333333337</v>
       </c>
@@ -791,12 +847,12 @@
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="3">
         <v>0.86458333333333337</v>
       </c>
@@ -809,12 +865,12 @@
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="3">
@@ -829,12 +885,12 @@
       <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="3">
         <v>0.70833333333333337</v>
       </c>
@@ -847,12 +903,12 @@
       <c r="E17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="3">
         <v>0.77083333333333337</v>
       </c>
@@ -865,12 +921,12 @@
       <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="3">
         <v>0.83333333333333337</v>
       </c>
@@ -883,12 +939,12 @@
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3">
@@ -903,12 +959,12 @@
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -921,12 +977,12 @@
       <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="3">
         <v>0.5</v>
       </c>
@@ -939,12 +995,12 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -955,10 +1011,10 @@
         <v>22</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="3">
         <v>0.66666666666666663</v>
       </c>
@@ -969,10 +1025,10 @@
         <v>22</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="3">
         <v>0.72916666666666663</v>
       </c>
@@ -983,10 +1039,10 @@
         <v>22</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="3">
         <v>0.79166666666666663</v>
       </c>
@@ -999,12 +1055,12 @@
       <c r="E26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="3">
         <v>0.875</v>
       </c>
@@ -1015,10 +1071,10 @@
         <v>22</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
@@ -1033,12 +1089,12 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
+      <c r="A29" s="6"/>
       <c r="B29" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -1051,12 +1107,12 @@
       <c r="E29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="3">
         <v>0.5</v>
       </c>
@@ -1067,10 +1123,10 @@
         <v>22</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="3">
         <v>0.58333333333333337</v>
       </c>
@@ -1081,10 +1137,10 @@
         <v>22</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="3">
         <v>0.66666666666666663</v>
       </c>
@@ -1097,12 +1153,12 @@
       <c r="E32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
+      <c r="A33" s="6"/>
       <c r="B33" s="3">
         <v>0.75</v>
       </c>
@@ -1115,12 +1171,12 @@
       <c r="E33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="3">
         <v>0.8125</v>
       </c>
@@ -1131,10 +1187,10 @@
         <v>22</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="3">
         <v>0.89583333333333337</v>
       </c>
@@ -1145,7 +1201,7 @@
         <v>22</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1160,4 +1216,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B959C5-ADEF-4660-BBC3-4737A969B9DC}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C14">
+    <sortCondition ref="A2:A14"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FEBDD1-A610-4141-A109-66F51CBC1D9A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>